--- a/cargo_plates/sw_src005_antiNelsonQuimby_cc6hb_h2handles.xlsx
+++ b/cargo_plates/sw_src005_antiNelsonQuimby_cc6hb_h2handles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/Shih_Lab_Postdoc/research_projects/crisscross_code/cargo_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02764c23b0b97413/Cloud_Documents/Shih_Lab_2024/Crisscross-Design/GUI/used-cargo-plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A75C4-327D-264E-B7FA-F0E227BD56E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{947A75C4-327D-264E-B7FA-F0E227BD56E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C580AE-DA2D-4E1F-B5E2-1A67A8BCBEA4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{A6DA471F-3DB0-6A47-B698-4794F84DD224}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{A6DA471F-3DB0-6A47-B698-4794F84DD224}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="3" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="Descriptions" sheetId="4" r:id="rId3"/>
     <sheet name="Extra Transfers" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="370">
   <si>
     <t>A</t>
   </si>
@@ -177,198 +188,6 @@
     <t>from P3299_SW</t>
   </si>
   <si>
-    <t>h2-pos1-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos2-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos3-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos4-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos5-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos6-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos7-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos8-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos9-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos10-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos11-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos12-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos13-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos14-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos15-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos16-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos17-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos18-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos19-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos20-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos21-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos22-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos23-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos24-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos25-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos26-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos27-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos28-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos29-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos30-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos31-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos32-antiNelson</t>
-  </si>
-  <si>
-    <t>h2-pos1-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos2-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos3-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos4-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos5-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos6-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos7-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos8-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos9-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos10-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos11-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos12-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos13-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos14-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos15-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos16-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos17-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos18-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos19-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos20-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos21-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos22-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos23-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos24-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos25-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos26-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos27-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos28-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos29-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos30-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos31-antiQuimby</t>
-  </si>
-  <si>
-    <t>h2-pos32-antiQuimby</t>
-  </si>
-  <si>
     <t>h2 handles anti-Nelson</t>
   </si>
   <si>
@@ -741,198 +560,6 @@
     <t>F08</t>
   </si>
   <si>
-    <t>loopctrl-h2-pos1-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos2-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos3-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos4-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos5-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos6-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos7-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos8-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos9-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos10-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos11-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos12-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos13-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos14-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos15-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos16-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos17-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos18-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos19-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos20-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos21-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos22-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos23-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos24-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos25-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos26-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos27-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos28-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos29-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos30-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos31-y0n9m4</t>
-  </si>
-  <si>
-    <t>loopctrl-h2-pos32-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos1-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos2-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos3-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos4-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos5-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos6-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos7-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos8-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos9-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos10-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos11-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos12-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos13-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos14-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos15-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos16-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos17-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos18-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos19-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos20-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos21-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos22-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos23-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos24-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos25-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos26-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos27-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos28-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos29-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos30-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos31-y0n9m4</t>
-  </si>
-  <si>
-    <t>mask-h2-pos32-y0n9m4</t>
-  </si>
-  <si>
     <t>mask-h2-y0n9m4</t>
   </si>
   <si>
@@ -1135,13 +762,400 @@
   </si>
   <si>
     <t>NAX</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos1</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos2</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos3</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos4</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos5</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos6</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos7</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos8</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos9</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos10</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos11</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos12</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos13</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos14</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos15</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos16</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos17</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos18</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos19</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos20</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos21</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos22</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos23</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos24</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos25</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos26</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos27</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos28</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos29</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos30</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos31</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos32</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos1</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos2</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos3</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos4</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos5</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos6</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos7</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos8</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos9</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos10</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos11</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos12</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos13</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos14</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos15</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos16</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos17</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos18</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos19</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos20</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos21</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos22</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos23</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos24</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos25</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos26</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos27</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos28</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos29</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos30</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos31</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos32</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos1</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos2</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos3</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos4</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos5</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos6</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos7</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos8</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos9</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos10</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos11</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos12</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos13</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos14</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos15</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos16</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos17</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos18</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos19</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos20</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos21</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos22</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos23</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos24</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos25</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos26</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos27</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos28</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos29</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos30</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos31</t>
+  </si>
+  <si>
+    <t>loopctrl-y0n9m4_h2_pos32</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos1</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos2</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos3</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos4</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos5</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos6</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos7</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos8</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos9</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos10</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos11</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos12</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos13</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos14</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos15</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos16</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos17</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos18</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos19</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos20</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos21</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos22</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos23</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos24</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos25</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos26</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos27</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos28</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos29</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos30</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos31</t>
+  </si>
+  <si>
+    <t>mask-y0n9m4_h2_pos32</t>
+  </si>
+  <si>
+    <t>name_side_position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1186,6 +1200,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1297,13 +1319,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1314,14 +1335,27 @@
     <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1333,15 +1367,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,6 +1382,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1656,595 +1685,819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A330979C-A82F-6645-A34F-51C92A163A61}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A22"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="25" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="25" width="6.1484375" customWidth="1"/>
     <col min="26" max="26" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A1" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>79</v>
+      <c r="B3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" s="12"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>86</v>
+        <v>278</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>90</v>
+        <v>280</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>99</v>
+        <v>291</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>100</v>
+        <v>292</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="Z6" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="B6" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="P9" s="17" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="Z7" s="15"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="Z8" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="Z9" s="16"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="Q9" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A16" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A17" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="Z8:Z9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2255,17 +2508,17 @@
   </sheetPr>
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="25" width="6.1640625" customWidth="1"/>
+    <col min="2" max="25" width="6.1484375" customWidth="1"/>
     <col min="26" max="26" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2342,518 +2595,518 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z3" s="11"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="Z3" s="20"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="22"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z6" s="15" t="s">
-        <v>302</v>
+      <c r="B6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="AA6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z7" s="15"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z7" s="23"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z8" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z9" s="16"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z9" s="24"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2879,8 +3132,8 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2889,25 +3142,25 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2933,8 +3186,8 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2943,22 +3196,22 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2976,13 +3229,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C4B945-413B-9446-9175-6E015252E944}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="107" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -3059,466 +3312,466 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3533,387 +3786,387 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="11">
         <v>3</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="11">
         <v>4</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="11">
         <v>5</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="11">
         <v>6</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="11">
         <v>7</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="11">
         <v>8</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="11">
         <v>9</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="11">
         <v>10</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="11">
         <v>11</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="11">
         <v>12</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="11">
         <v>13</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="11">
         <v>14</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="11">
         <v>15</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="11">
         <v>16</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="11">
         <v>17</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="11">
         <v>18</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="11">
         <v>19</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="11">
         <v>20</v>
       </c>
-      <c r="V3" s="20">
+      <c r="V3" s="11">
         <v>21</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="11">
         <v>22</v>
       </c>
-      <c r="X3" s="20">
+      <c r="X3" s="11">
         <v>23</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="K4" s="22" t="s">
+      <c r="B4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="W4" s="22" t="s">
+      <c r="N4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="B5" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="V6" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="W6" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="X6" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y6" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="B6" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
+      <c r="B7" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
